--- a/docs/caancom-templates.xlsx
+++ b/docs/caancom-templates.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\My Programming\Webs Php Projects\caancomR3\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\My Programming\Webs Php Projects\caancom4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BCEE85-00EA-4B0D-91DF-274E22E478E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C420C053-7D61-47CB-91AE-0BCBCE824F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Career-job-page" sheetId="1" r:id="rId1"/>
+    <sheet name="home" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Tên</t>
   </si>
@@ -64,6 +65,15 @@
   </si>
   <si>
     <t>Link tới nơi apply</t>
+  </si>
+  <si>
+    <t>home_repeater_m</t>
+  </si>
+  <si>
+    <t>Repeat Matrix</t>
+  </si>
+  <si>
+    <t>head_slide</t>
   </si>
 </sst>
 </file>
@@ -383,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="O3:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,4 +452,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0721863-45F0-43E8-A28D-AACA9A773602}">
+  <dimension ref="O3:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/caancom-templates.xlsx
+++ b/docs/caancom-templates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\My Programming\Webs Php Projects\caancom4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C420C053-7D61-47CB-91AE-0BCBCE824F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239A0EE9-ECF7-4A39-BBF1-5ED4585FBCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Career-job-page" sheetId="1" r:id="rId1"/>
     <sheet name="home" sheetId="2" r:id="rId2"/>
+    <sheet name="fields chung" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Tên</t>
   </si>
@@ -74,6 +75,15 @@
   </si>
   <si>
     <t>head_slide</t>
+  </si>
+  <si>
+    <t>form_hana_code</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Đẻ các form</t>
   </si>
 </sst>
 </file>
@@ -458,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0721863-45F0-43E8-A28D-AACA9A773602}">
   <dimension ref="O3:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,4 +510,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41FC0E2-8A12-4445-9E96-4A1492AB5941}">
+  <dimension ref="A2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/caancom-templates.xlsx
+++ b/docs/caancom-templates.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\My Programming\Webs Php Projects\caancom4\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDungHDD\My Programming\Webs Php Projects\caancom4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239A0EE9-ECF7-4A39-BBF1-5ED4585FBCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1E2A0-7AE8-4F13-BC7B-84993C942269}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Career-job-page" sheetId="1" r:id="rId1"/>
-    <sheet name="home" sheetId="2" r:id="rId2"/>
-    <sheet name="fields chung" sheetId="3" r:id="rId3"/>
+    <sheet name="Mục-Quy Trình" sheetId="4" r:id="rId2"/>
+    <sheet name="home" sheetId="2" r:id="rId3"/>
+    <sheet name="fields chung" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Tên</t>
   </si>
@@ -85,6 +86,30 @@
   <si>
     <t>Đẻ các form</t>
   </si>
+  <si>
+    <t>Template đề nghị</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>Quy trình S</t>
+  </si>
+  <si>
+    <t>Quy Trình</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Chỉ nằm trong danh mục</t>
+  </si>
+  <si>
+    <t>chỉ nằm trong tags</t>
+  </si>
 </sst>
 </file>
 
@@ -136,6 +161,3281 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{464BC7C2-D509-41D7-9843-F69EF820C700}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Quy trình</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FE1ED20A-420E-41C2-9E90-CBF21C4AFECF}" type="parTrans" cxnId="{23CA0662-E209-4C96-AF04-586C489F8ABC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6FE8A6F0-AE13-4410-9CAC-FA5B166C869A}" type="sibTrans" cxnId="{23CA0662-E209-4C96-AF04-586C489F8ABC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{725E7AB8-DA4B-4426-9141-99F4F986A487}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Phòng A</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B70655F2-F7DA-41B5-A70A-259862D1B4AF}" type="parTrans" cxnId="{75F1ADFC-4DC7-4595-B0A2-C3C0D22E740E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C53A01D-8951-4355-B6C1-BB2DBCA09357}" type="sibTrans" cxnId="{75F1ADFC-4DC7-4595-B0A2-C3C0D22E740E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FA443906-D130-4688-B513-63E5CDEFABFB}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Quy Trình 1</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F44F0C1A-1BC8-46F4-879D-268EEC04EBE3}" type="parTrans" cxnId="{11E4A975-2B72-48D6-97FC-C1770B39069A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4186D479-CE63-4F1E-9DA3-F92775530D6F}" type="sibTrans" cxnId="{11E4A975-2B72-48D6-97FC-C1770B39069A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2FC62892-8B91-4AB1-A286-7913B48B61C6}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Phòng B</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{461FDA7E-A2F3-4D49-A9B2-70AA1CE28A16}" type="parTrans" cxnId="{FF0D1650-4B1A-472D-946F-459980AEB63A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{80C21529-6445-4496-A386-A5A3CA744324}" type="sibTrans" cxnId="{FF0D1650-4B1A-472D-946F-459980AEB63A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1A00B1E3-3477-4B05-B080-DD4B4C2AB916}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Quy Trình 1</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5CF117A8-EA58-4B5D-95F2-D2A830303E75}" type="parTrans" cxnId="{9D097D5C-1F79-4BC1-AC06-8942BAC03F3C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F57AC93B-04A5-448E-8FFE-3FC4D8E396D5}" type="sibTrans" cxnId="{9D097D5C-1F79-4BC1-AC06-8942BAC03F3C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9537A394-B8C9-4C9D-89C1-78C37B1776FD}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Quy trình 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{642262EA-FC2B-420E-A89E-E8D60D5AD57D}" type="parTrans" cxnId="{BCCD6CD3-3BA4-4311-96B1-50CF4411312A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0CAF538F-06C9-45AE-9546-60F748B40C8C}" type="sibTrans" cxnId="{BCCD6CD3-3BA4-4311-96B1-50CF4411312A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{48A3C389-9FD5-4E4F-B251-CE96E45949E2}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Tags</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D69F3575-5A8C-4344-8A68-14270EA01873}" type="parTrans" cxnId="{3D745BDF-8B12-4F56-A860-BFBFAA623133}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AA7057D8-E215-4A7E-955F-23722E564EE2}" type="sibTrans" cxnId="{3D745BDF-8B12-4F56-A860-BFBFAA623133}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2A130B46-96A7-43D3-AF3C-174B0BBBC8BF}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Tag 1</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{533A5861-7861-4F85-BA22-5C2724635322}" type="parTrans" cxnId="{C1B4A268-B7D1-49AB-B1A6-44DA458ED9A0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EAAE5664-45BC-4122-A12D-706120094085}" type="sibTrans" cxnId="{C1B4A268-B7D1-49AB-B1A6-44DA458ED9A0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0863DF96-5C5D-46B1-A225-B6A4B2A5C5C9}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Tag 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4730374-9836-4018-A7B6-79C8231B84E9}" type="parTrans" cxnId="{92655579-22A9-401E-819E-CC3D8AFEFA88}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DDE14C70-64A2-4B2F-A646-6CF2031C3D03}" type="sibTrans" cxnId="{92655579-22A9-401E-819E-CC3D8AFEFA88}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5EB134B5-0317-48B5-BBD7-578A0DF06AE6}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Tag 3</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{77E1E221-EBC9-4613-977B-5ACA75380BC6}" type="parTrans" cxnId="{D9C73F3E-68A5-41E8-9C06-A3B6BF6FBA0E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2781D8EC-1140-4611-B24E-0B26D4072B71}" type="sibTrans" cxnId="{D9C73F3E-68A5-41E8-9C06-A3B6BF6FBA0E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F750CCEE-0994-49CE-94AF-F7818EDA183E}">
+      <dgm:prSet phldrT="[Văn bản]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG"/>
+            <a:t>Quy trình 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{417FD155-ED1D-413B-B31B-246B24DCF628}" type="parTrans" cxnId="{F9887CCC-4B5F-47C5-BDD2-1DCE264686CD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C8CABC63-48F4-4517-B174-685C1B7FD140}" type="sibTrans" cxnId="{F9887CCC-4B5F-47C5-BDD2-1DCE264686CD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{978DACD0-6C00-49A2-9D91-44B75857F2C7}" type="pres">
+      <dgm:prSet presAssocID="{464BC7C2-D509-41D7-9843-F69EF820C700}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{02B6F01C-F54D-4035-834D-341CFB43EFE9}" type="pres">
+      <dgm:prSet presAssocID="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{276B87E2-30EA-42EA-B565-381829A6797A}" type="pres">
+      <dgm:prSet presAssocID="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E352F28-5CB5-4FCD-9AA2-024D97B385D5}" type="pres">
+      <dgm:prSet presAssocID="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" presName="rootText" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="1" custScaleY="42350"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{22917649-4D8A-468C-85FB-EEF63A20AF77}" type="pres">
+      <dgm:prSet presAssocID="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DD91F73C-1FE5-47BE-B686-EC336ECE17AD}" type="pres">
+      <dgm:prSet presAssocID="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D3792698-3357-4352-8F39-648CE39E8DD4}" type="pres">
+      <dgm:prSet presAssocID="{B70655F2-F7DA-41B5-A70A-259862D1B4AF}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{22344EFD-C75E-4C2A-ABAF-06848093268A}" type="pres">
+      <dgm:prSet presAssocID="{725E7AB8-DA4B-4426-9141-99F4F986A487}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4CE7C137-CEA0-4B0D-AB31-ABE342ED08E6}" type="pres">
+      <dgm:prSet presAssocID="{461FDA7E-A2F3-4D49-A9B2-70AA1CE28A16}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{244E1A05-4F11-4937-A1B9-B267B8C3AEEB}" type="pres">
+      <dgm:prSet presAssocID="{2FC62892-8B91-4AB1-A286-7913B48B61C6}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E945180A-B9CD-4ED5-BF70-2F1F1EA43DAA}" type="pres">
+      <dgm:prSet presAssocID="{D69F3575-5A8C-4344-8A68-14270EA01873}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AC0AFB14-609E-4751-AB26-9E04CCA0DC34}" type="pres">
+      <dgm:prSet presAssocID="{48A3C389-9FD5-4E4F-B251-CE96E45949E2}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{47A62A01-E504-4967-9FF7-950D02D66EB0}" type="presOf" srcId="{464BC7C2-D509-41D7-9843-F69EF820C700}" destId="{978DACD0-6C00-49A2-9D91-44B75857F2C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{2266020D-AAB3-46DF-8A93-3C09BBFBD5E4}" type="presOf" srcId="{B70655F2-F7DA-41B5-A70A-259862D1B4AF}" destId="{D3792698-3357-4352-8F39-648CE39E8DD4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4495F910-0D0C-4A9B-923A-F40DAA00C927}" type="presOf" srcId="{FA443906-D130-4688-B513-63E5CDEFABFB}" destId="{22344EFD-C75E-4C2A-ABAF-06848093268A}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{CBCB5A39-92B2-4BFA-ABE8-3EAD83CAF3DE}" type="presOf" srcId="{1A00B1E3-3477-4B05-B080-DD4B4C2AB916}" destId="{244E1A05-4F11-4937-A1B9-B267B8C3AEEB}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D9C73F3E-68A5-41E8-9C06-A3B6BF6FBA0E}" srcId="{48A3C389-9FD5-4E4F-B251-CE96E45949E2}" destId="{5EB134B5-0317-48B5-BBD7-578A0DF06AE6}" srcOrd="2" destOrd="0" parTransId="{77E1E221-EBC9-4613-977B-5ACA75380BC6}" sibTransId="{2781D8EC-1140-4611-B24E-0B26D4072B71}"/>
+    <dgm:cxn modelId="{9D097D5C-1F79-4BC1-AC06-8942BAC03F3C}" srcId="{2FC62892-8B91-4AB1-A286-7913B48B61C6}" destId="{1A00B1E3-3477-4B05-B080-DD4B4C2AB916}" srcOrd="0" destOrd="0" parTransId="{5CF117A8-EA58-4B5D-95F2-D2A830303E75}" sibTransId="{F57AC93B-04A5-448E-8FFE-3FC4D8E396D5}"/>
+    <dgm:cxn modelId="{FC21A641-8292-49D0-8B58-8C4FA83C9F8C}" type="presOf" srcId="{5EB134B5-0317-48B5-BBD7-578A0DF06AE6}" destId="{AC0AFB14-609E-4751-AB26-9E04CCA0DC34}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{23CA0662-E209-4C96-AF04-586C489F8ABC}" srcId="{464BC7C2-D509-41D7-9843-F69EF820C700}" destId="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" srcOrd="0" destOrd="0" parTransId="{FE1ED20A-420E-41C2-9E90-CBF21C4AFECF}" sibTransId="{6FE8A6F0-AE13-4410-9CAC-FA5B166C869A}"/>
+    <dgm:cxn modelId="{C1B4A268-B7D1-49AB-B1A6-44DA458ED9A0}" srcId="{48A3C389-9FD5-4E4F-B251-CE96E45949E2}" destId="{2A130B46-96A7-43D3-AF3C-174B0BBBC8BF}" srcOrd="0" destOrd="0" parTransId="{533A5861-7861-4F85-BA22-5C2724635322}" sibTransId="{EAAE5664-45BC-4122-A12D-706120094085}"/>
+    <dgm:cxn modelId="{F23D436F-58C1-4831-AD6A-2EF5B6A29F9C}" type="presOf" srcId="{725E7AB8-DA4B-4426-9141-99F4F986A487}" destId="{22344EFD-C75E-4C2A-ABAF-06848093268A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{FF0D1650-4B1A-472D-946F-459980AEB63A}" srcId="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" destId="{2FC62892-8B91-4AB1-A286-7913B48B61C6}" srcOrd="1" destOrd="0" parTransId="{461FDA7E-A2F3-4D49-A9B2-70AA1CE28A16}" sibTransId="{80C21529-6445-4496-A386-A5A3CA744324}"/>
+    <dgm:cxn modelId="{11E4A975-2B72-48D6-97FC-C1770B39069A}" srcId="{725E7AB8-DA4B-4426-9141-99F4F986A487}" destId="{FA443906-D130-4688-B513-63E5CDEFABFB}" srcOrd="0" destOrd="0" parTransId="{F44F0C1A-1BC8-46F4-879D-268EEC04EBE3}" sibTransId="{4186D479-CE63-4F1E-9DA3-F92775530D6F}"/>
+    <dgm:cxn modelId="{40E6EF58-D69B-41C0-B5F7-647C9072FA35}" type="presOf" srcId="{2A130B46-96A7-43D3-AF3C-174B0BBBC8BF}" destId="{AC0AFB14-609E-4751-AB26-9E04CCA0DC34}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{92655579-22A9-401E-819E-CC3D8AFEFA88}" srcId="{48A3C389-9FD5-4E4F-B251-CE96E45949E2}" destId="{0863DF96-5C5D-46B1-A225-B6A4B2A5C5C9}" srcOrd="1" destOrd="0" parTransId="{D4730374-9836-4018-A7B6-79C8231B84E9}" sibTransId="{DDE14C70-64A2-4B2F-A646-6CF2031C3D03}"/>
+    <dgm:cxn modelId="{7CD1C67B-117A-4713-932E-3818FF013CB0}" type="presOf" srcId="{48A3C389-9FD5-4E4F-B251-CE96E45949E2}" destId="{AC0AFB14-609E-4751-AB26-9E04CCA0DC34}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{694C028E-F57F-4EE2-A0EA-C38926F34B86}" type="presOf" srcId="{461FDA7E-A2F3-4D49-A9B2-70AA1CE28A16}" destId="{4CE7C137-CEA0-4B0D-AB31-ABE342ED08E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3C0A9493-CB93-4ACF-BBA5-6F8D90A3A0A0}" type="presOf" srcId="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" destId="{22917649-4D8A-468C-85FB-EEF63A20AF77}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{FE3084A8-4271-4C8F-804B-692CE3EEC851}" type="presOf" srcId="{D69F3575-5A8C-4344-8A68-14270EA01873}" destId="{E945180A-B9CD-4ED5-BF70-2F1F1EA43DAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F9887CCC-4B5F-47C5-BDD2-1DCE264686CD}" srcId="{725E7AB8-DA4B-4426-9141-99F4F986A487}" destId="{F750CCEE-0994-49CE-94AF-F7818EDA183E}" srcOrd="1" destOrd="0" parTransId="{417FD155-ED1D-413B-B31B-246B24DCF628}" sibTransId="{C8CABC63-48F4-4517-B174-685C1B7FD140}"/>
+    <dgm:cxn modelId="{BCCD6CD3-3BA4-4311-96B1-50CF4411312A}" srcId="{2FC62892-8B91-4AB1-A286-7913B48B61C6}" destId="{9537A394-B8C9-4C9D-89C1-78C37B1776FD}" srcOrd="1" destOrd="0" parTransId="{642262EA-FC2B-420E-A89E-E8D60D5AD57D}" sibTransId="{0CAF538F-06C9-45AE-9546-60F748B40C8C}"/>
+    <dgm:cxn modelId="{8D892FD5-D208-4083-A6C4-01D5E077416B}" type="presOf" srcId="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" destId="{7E352F28-5CB5-4FCD-9AA2-024D97B385D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3D745BDF-8B12-4F56-A860-BFBFAA623133}" srcId="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" destId="{48A3C389-9FD5-4E4F-B251-CE96E45949E2}" srcOrd="2" destOrd="0" parTransId="{D69F3575-5A8C-4344-8A68-14270EA01873}" sibTransId="{AA7057D8-E215-4A7E-955F-23722E564EE2}"/>
+    <dgm:cxn modelId="{5439A7E0-53B8-47D6-A29C-C67523ACC0D0}" type="presOf" srcId="{2FC62892-8B91-4AB1-A286-7913B48B61C6}" destId="{244E1A05-4F11-4937-A1B9-B267B8C3AEEB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A5F6B3EC-AC12-41AE-995E-6DB45230DA4C}" type="presOf" srcId="{9537A394-B8C9-4C9D-89C1-78C37B1776FD}" destId="{244E1A05-4F11-4937-A1B9-B267B8C3AEEB}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{753A29F4-BE15-4EA1-AE3A-8E9CE5F5CC5D}" type="presOf" srcId="{0863DF96-5C5D-46B1-A225-B6A4B2A5C5C9}" destId="{AC0AFB14-609E-4751-AB26-9E04CCA0DC34}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{616A81F6-3826-4AC2-A639-0917DC5690BC}" type="presOf" srcId="{F750CCEE-0994-49CE-94AF-F7818EDA183E}" destId="{22344EFD-C75E-4C2A-ABAF-06848093268A}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{75F1ADFC-4DC7-4595-B0A2-C3C0D22E740E}" srcId="{0A5500B6-4B7C-456B-ADF4-69698D9C63FC}" destId="{725E7AB8-DA4B-4426-9141-99F4F986A487}" srcOrd="0" destOrd="0" parTransId="{B70655F2-F7DA-41B5-A70A-259862D1B4AF}" sibTransId="{7C53A01D-8951-4355-B6C1-BB2DBCA09357}"/>
+    <dgm:cxn modelId="{DBC9FFC5-3419-49B1-AB49-A446711B4BB9}" type="presParOf" srcId="{978DACD0-6C00-49A2-9D91-44B75857F2C7}" destId="{02B6F01C-F54D-4035-834D-341CFB43EFE9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{1326887E-9B6C-4686-8750-10D5A5A8518F}" type="presParOf" srcId="{02B6F01C-F54D-4035-834D-341CFB43EFE9}" destId="{276B87E2-30EA-42EA-B565-381829A6797A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{76AE0CF2-1D2F-4C07-9D03-C9BE37B9FA74}" type="presParOf" srcId="{276B87E2-30EA-42EA-B565-381829A6797A}" destId="{7E352F28-5CB5-4FCD-9AA2-024D97B385D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{35CD2FC7-D706-432C-8976-50B3C8F16761}" type="presParOf" srcId="{276B87E2-30EA-42EA-B565-381829A6797A}" destId="{22917649-4D8A-468C-85FB-EEF63A20AF77}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{83D9D72A-EF4A-49B5-A18E-6CC05348DB79}" type="presParOf" srcId="{02B6F01C-F54D-4035-834D-341CFB43EFE9}" destId="{DD91F73C-1FE5-47BE-B686-EC336ECE17AD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{79FA8BE5-FA7D-4EEB-82ED-507C1ADA6BFA}" type="presParOf" srcId="{DD91F73C-1FE5-47BE-B686-EC336ECE17AD}" destId="{D3792698-3357-4352-8F39-648CE39E8DD4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{46771FA8-8CCC-46EF-8CAE-429E1986473B}" type="presParOf" srcId="{DD91F73C-1FE5-47BE-B686-EC336ECE17AD}" destId="{22344EFD-C75E-4C2A-ABAF-06848093268A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{46D9FF54-7D8B-4396-80CF-4C1F4559EDEC}" type="presParOf" srcId="{DD91F73C-1FE5-47BE-B686-EC336ECE17AD}" destId="{4CE7C137-CEA0-4B0D-AB31-ABE342ED08E6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{C0C4FA22-2FAB-4866-BB1E-488B1954B343}" type="presParOf" srcId="{DD91F73C-1FE5-47BE-B686-EC336ECE17AD}" destId="{244E1A05-4F11-4937-A1B9-B267B8C3AEEB}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{830EB699-9CA3-4C7B-92F9-960667077528}" type="presParOf" srcId="{DD91F73C-1FE5-47BE-B686-EC336ECE17AD}" destId="{E945180A-B9CD-4ED5-BF70-2F1F1EA43DAA}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{24C0E28C-76C6-4BEE-88E9-032A1E639AFB}" type="presParOf" srcId="{DD91F73C-1FE5-47BE-B686-EC336ECE17AD}" destId="{AC0AFB14-609E-4751-AB26-9E04CCA0DC34}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{7E352F28-5CB5-4FCD-9AA2-024D97B385D5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="891778" y="2928"/>
+          <a:ext cx="2293143" cy="485573"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="51435" tIns="34290" rIns="51435" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="2700" kern="1200"/>
+            <a:t>Quy trình</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="906000" y="17150"/>
+        <a:ext cx="2264699" cy="457129"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D3792698-3357-4352-8F39-648CE39E8DD4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1121092" y="488501"/>
+          <a:ext cx="229314" cy="859928"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="859928"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="229314" y="859928"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{22344EFD-C75E-4C2A-ABAF-06848093268A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1350406" y="775144"/>
+          <a:ext cx="1834515" cy="1146571"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="22860" rIns="34290" bIns="22860" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1800" kern="1200"/>
+            <a:t>Phòng A</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1400" kern="1200"/>
+            <a:t>Quy Trình 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1400" kern="1200"/>
+            <a:t>Quy trình 2</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1383988" y="808726"/>
+        <a:ext cx="1767351" cy="1079407"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4CE7C137-CEA0-4B0D-AB31-ABE342ED08E6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1121092" y="488501"/>
+          <a:ext cx="229314" cy="2293143"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2293143"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="229314" y="2293143"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{244E1A05-4F11-4937-A1B9-B267B8C3AEEB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1350406" y="2208359"/>
+          <a:ext cx="1834515" cy="1146571"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="22860" rIns="34290" bIns="22860" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1800" kern="1200"/>
+            <a:t>Phòng B</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1400" kern="1200"/>
+            <a:t>Quy Trình 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1400" kern="1200"/>
+            <a:t>Quy trình 2</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1383988" y="2241941"/>
+        <a:ext cx="1767351" cy="1079407"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E945180A-B9CD-4ED5-BF70-2F1F1EA43DAA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1121092" y="488501"/>
+          <a:ext cx="229314" cy="3726358"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="3726358"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="229314" y="3726358"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{AC0AFB14-609E-4751-AB26-9E04CCA0DC34}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1350406" y="3641574"/>
+          <a:ext cx="1834515" cy="1146571"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="22860" rIns="34290" bIns="22860" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1800" kern="1200"/>
+            <a:t>Tags</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1400" kern="1200"/>
+            <a:t>Tag 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1400" kern="1200"/>
+            <a:t>Tag 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1400" kern="1200"/>
+            <a:t>Tag 3</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1383988" y="3675156"/>
+        <a:ext cx="1767351" cy="1079407"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="7000"/>
+    <dgm:cat type="list" pri="23000"/>
+    <dgm:cat type="relationship" pri="15000"/>
+    <dgm:cat type="convert" pri="7000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="41"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="43" srcId="4" destId="41" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromL"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="primFontSz" for="des" forName="rootText" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="childText" op="equ" val="65"/>
+      <dgm:constr type="w" for="des" forName="rootComposite" refType="w"/>
+      <dgm:constr type="h" for="des" forName="rootComposite" refType="w" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="childText" refType="w" refFor="des" refForName="rootComposite" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="childText" refType="h" refFor="des" refForName="rootComposite"/>
+      <dgm:constr type="sibSp" refType="w" refFor="des" refForName="rootComposite" fact="0.25"/>
+      <dgm:constr type="sibSp" for="des" forName="childShape" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+      <dgm:constr type="sp" for="des" forName="root" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node" cnt="1">
+        <dgm:layoutNode name="root">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tL"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tR"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst>
+            <dgm:constr type="alignOff" val="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="rootComposite">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node" cnt="1"/>
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst/>
+            <dgm:layoutNode name="rootText" styleLbl="node1">
+              <dgm:alg type="tx"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="rootConnector" moveWith="rootText">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="" hideGeom="1">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="childShape">
+            <dgm:alg type="hierChild">
+              <dgm:param type="chAlign" val="l"/>
+              <dgm:param type="linDir" val="fromT"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="Name11" axis="ch">
+              <dgm:forEach name="Name12" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="Name13">
+                  <dgm:choose name="Name14">
+                    <dgm:if name="Name15" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midL"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name16">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midR"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name17" axis="self" ptType="node">
+                <dgm:layoutNode name="childText" styleLbl="bgAcc1">
+                  <dgm:varLst>
+                    <dgm:bulletEnabled val="1"/>
+                  </dgm:varLst>
+                  <dgm:alg type="tx"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                    <dgm:adjLst>
+                      <dgm:adj idx="1" val="0.1"/>
+                    </dgm:adjLst>
+                  </dgm:shape>
+                  <dgm:presOf axis="self desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst>
+                    <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                  </dgm:ruleLst>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Sơ đồ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DB6AA4-DE82-45E1-BC48-26809F26BD66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,7 +3704,7 @@
   <dimension ref="O3:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:S6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +3765,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9695F0CF-2020-40BC-895D-61B68CBDB32A}">
+  <dimension ref="J4:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0721863-45F0-43E8-A28D-AACA9A773602}">
   <dimension ref="O3:R5"/>
   <sheetViews>
@@ -512,11 +3867,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41FC0E2-8A12-4445-9E96-4A1492AB5941}">
   <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>

--- a/docs/caancom-templates.xlsx
+++ b/docs/caancom-templates.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDungHDD\My Programming\Webs Php Projects\caancom4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1E2A0-7AE8-4F13-BC7B-84993C942269}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478749C4-A979-4D59-B035-238B3F19637B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Career-job-page" sheetId="1" r:id="rId1"/>
     <sheet name="Mục-Quy Trình" sheetId="4" r:id="rId2"/>
-    <sheet name="home" sheetId="2" r:id="rId3"/>
-    <sheet name="fields chung" sheetId="3" r:id="rId4"/>
+    <sheet name="Mục-phòng ban" sheetId="5" r:id="rId3"/>
+    <sheet name="home" sheetId="2" r:id="rId4"/>
+    <sheet name="fields chung" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Tên</t>
   </si>
@@ -90,25 +91,58 @@
     <t>Template đề nghị</t>
   </si>
   <si>
-    <t>Danh mục</t>
+    <t>dept-chung</t>
   </si>
   <si>
-    <t>Quy trình S</t>
+    <t>dept-marketing</t>
   </si>
   <si>
-    <t>Quy Trình</t>
+    <t>dept-sales</t>
   </si>
   <si>
-    <t>Tags</t>
+    <t>dept-admin</t>
   </si>
   <si>
-    <t>Tag</t>
+    <t>dept-hr</t>
   </si>
   <si>
-    <t>Chỉ nằm trong danh mục</t>
+    <t>Diễn giải</t>
   </si>
   <si>
-    <t>chỉ nằm trong tags</t>
+    <t>PHòng ban chung chung</t>
+  </si>
+  <si>
+    <t>Cho marketing</t>
+  </si>
+  <si>
+    <t>Cho salé</t>
+  </si>
+  <si>
+    <t>wkpr-chung</t>
+  </si>
+  <si>
+    <t>wkpr-marketing</t>
+  </si>
+  <si>
+    <t>wkpr-sales</t>
+  </si>
+  <si>
+    <t>wkpr-admin</t>
+  </si>
+  <si>
+    <t>wkpr-hr</t>
+  </si>
+  <si>
+    <t>wkpr-procedure</t>
+  </si>
+  <si>
+    <t>wkpr-tags</t>
+  </si>
+  <si>
+    <t>wkpr-tag</t>
+  </si>
+  <si>
+    <t>…..</t>
   </si>
 </sst>
 </file>
@@ -3401,16 +3435,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3433,6 +3467,92 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Hộp Văn bản 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC835E34-CB45-4E8C-956A-7FEA7BF0BAB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="247650"/>
+          <a:ext cx="3476625" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Nhân</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t> viên đăng nhập vào xem các quy trình, họ chỉ xem được cac quy trình thuộc phòng ban của họ mà thôi.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t>Quy trình có nhiều tags để tiện phân danh mục.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3766,51 +3886,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9695F0CF-2020-40BC-895D-61B68CBDB32A}">
-  <dimension ref="J4:L9"/>
+  <dimension ref="Q1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
+    <row r="1" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K5" t="s">
-        <v>21</v>
+    <row r="2" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K6" t="s">
-        <v>20</v>
+    <row r="3" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
+    <row r="4" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K8" t="s">
-        <v>23</v>
+    <row r="5" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
+    <row r="6" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3820,6 +3967,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C15405-BA87-44E0-896F-648E73706BE4}">
+  <dimension ref="Q1:S6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0721863-45F0-43E8-A28D-AACA9A773602}">
   <dimension ref="O3:R5"/>
   <sheetViews>
@@ -3867,7 +4074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41FC0E2-8A12-4445-9E96-4A1492AB5941}">
   <dimension ref="A2:D3"/>
   <sheetViews>
